--- a/Document/costCenter_DataIntegrasi.xlsx
+++ b/Document/costCenter_DataIntegrasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Katalon Studio\Bio-Farma\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAAE1B1-754F-4957-8128-035582E3E91E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7756FC-6FCE-47ED-9191-4902C36C7D40}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,24 +178,6 @@
     <t>PT Industri Nuklir Indonesia (Persero)</t>
   </si>
   <si>
-    <t>CC001</t>
-  </si>
-  <si>
-    <t>CC002</t>
-  </si>
-  <si>
-    <t>CC003</t>
-  </si>
-  <si>
-    <t>CC004</t>
-  </si>
-  <si>
-    <t>CC005</t>
-  </si>
-  <si>
-    <t>CC006</t>
-  </si>
-  <si>
     <t>Produksi Obat Padat</t>
   </si>
   <si>
@@ -212,6 +194,24 @@
   </si>
   <si>
     <t>Departemen Administrasi dan Keuangan</t>
+  </si>
+  <si>
+    <t>AutomatedTest001</t>
+  </si>
+  <si>
+    <t>AutomatedTest002</t>
+  </si>
+  <si>
+    <t>AutomatedTest003</t>
+  </si>
+  <si>
+    <t>AutomatedTest004</t>
+  </si>
+  <si>
+    <t>AutomatedTest005</t>
+  </si>
+  <si>
+    <t>AutomatedTest006</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,10 +636,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,10 +650,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,10 +664,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,10 +678,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,13 +703,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
